--- a/biology/Botanique/Tripora_(plante)/Tripora_(plante).xlsx
+++ b/biology/Botanique/Tripora_(plante)/Tripora_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Tripora compte actuellement une seule espèce de plantes de la famille des Lamiacées originaires du Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Tripora appartient à la famille des Lamiacées, sous-famille Ajugoideae.
 Le genre a été créé en 1999 par Philip Douglas Cantino et son équipe à la suite d'études phylogénétiques du genre Caryopteris. Cela l'a conduit à créer six nouveaux genres dont le genre Tripora. L'espèce Caryopteris divaricata Maxim. présente une divergence importante rendant le genre Caryopteris non monophylétique.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des plantes vivaces, herbacées, pouvant atteindre un mètre de haut.
 Les feuilles sont simples et opposées, à marge dentée.
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tripora divaricata est originaire du Japon, mais son utilisation ornementale l'a répandue dans l'ensemble des pays à climat tempéré.
 </t>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le seul usage de Tripora divaricata est ornemental. Deux cultivars sont répertoriés :
 Tripora divaricata 'Blue Butterflies' - variété à fleur bleu profond (commercialisée sous le nom de Caryopteris divaricata 'Blue Butterflies')
